--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1007.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1007.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165376928597593</v>
+        <v>1.329689860343933</v>
       </c>
       <c r="B1">
-        <v>2.557536926897586</v>
+        <v>1.600885152816772</v>
       </c>
       <c r="C1">
-        <v>4.392001363733936</v>
+        <v>2.157634258270264</v>
       </c>
       <c r="D1">
-        <v>2.465338835616605</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.052759344762983</v>
+        <v>1.175687313079834</v>
       </c>
     </row>
   </sheetData>
